--- a/data/trans_orig/KIDM_C_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF4C74BC-B81D-4D7E-BB3C-75371E651AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57799AB4-461F-4D50-9E59-0AA40CEDD81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BAFE39ED-424A-4375-B544-C9B8106B5154}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{088710C1-35AD-4820-820C-6C474C022A25}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,99 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>95,4%</t>
   </si>
   <si>
@@ -98,9 +185,6 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>4,6%</t>
   </si>
   <si>
@@ -128,64 +212,49 @@
     <t>8,84%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,75 +312,6 @@
   </si>
   <si>
     <t>14,68%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
   </si>
   <si>
     <t>95,64%</t>
@@ -757,7 +757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC406ED-F58F-485B-B883-50F9DCCFEF92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3AB31E-AE31-404D-9A40-E10F9631BC36}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -875,10 +875,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>97977</v>
+        <v>2324</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -890,85 +890,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>55042</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3918</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>190</v>
-      </c>
-      <c r="N4" s="7">
-        <v>153020</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4721</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6739</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -977,54 +977,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1036,13 +1036,13 @@
         <v>41419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -1051,13 +1051,13 @@
         <v>28251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -1066,19 +1066,19 @@
         <v>69669</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1087,13 +1087,13 @@
         <v>546</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1102,13 +1102,13 @@
         <v>3648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1117,13 +1117,13 @@
         <v>4194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1138,13 +1138,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -1153,13 +1153,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -1168,117 +1168,117 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>50393</v>
+        <v>97977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>52793</v>
+        <v>55042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="N10" s="7">
-        <v>103186</v>
+        <v>153020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>5949</v>
+        <v>4721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>3691</v>
+        <v>2018</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>9640</v>
+        <v>6739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1287,153 +1287,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N12" s="7">
-        <v>112826</v>
+        <v>159759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>2324</v>
+        <v>63429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>1593</v>
+        <v>52236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>3918</v>
+        <v>115665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,144 +1442,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I15" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N15" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>63429</v>
+        <v>50393</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7">
+        <v>70</v>
+      </c>
+      <c r="I16" s="7">
+        <v>52793</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="7">
-        <v>62</v>
-      </c>
-      <c r="I16" s="7">
-        <v>52236</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>133</v>
+      </c>
+      <c r="N16" s="7">
+        <v>103186</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="7">
-        <v>126</v>
-      </c>
-      <c r="N16" s="7">
-        <v>115665</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>422</v>
+        <v>5949</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3691</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3273</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>3695</v>
+        <v>9640</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>89</v>
@@ -1597,49 +1597,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I18" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N18" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,7 +1698,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -1758,13 +1758,13 @@
         <v>267180</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -1773,13 +1773,13 @@
         <v>202546</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>577</v>
@@ -1788,13 +1788,13 @@
         <v>469726</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57799AB4-461F-4D50-9E59-0AA40CEDD81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B035930-696C-4D80-8416-A259919D5597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{088710C1-35AD-4820-820C-6C474C022A25}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04B3F17B-576B-4D0B-8C1A-F4469BADD6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
   <si>
     <t>Menores según si tienen muchos o muchísimos problemas para dormir (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -68,6 +68,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,286 +104,277 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>92,71%</t>
+    <t>93,23%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>81,17%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
     <t>89,44%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -376,7 +385,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -472,39 +481,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -556,7 +565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -667,13 +676,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -682,6 +684,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -746,19 +755,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3AB31E-AE31-404D-9A40-E10F9631BC36}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF176CAC-4DC0-4B3A-92CE-3885CEA54686}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -875,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -890,34 +919,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>3918</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -926,10 +955,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -941,34 +970,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3918</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -983,13 +1012,13 @@
         <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -998,13 +1027,13 @@
         <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1013,13 +1042,13 @@
         <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1030,25 +1059,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>41419</v>
+        <v>546</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>28251</v>
+        <v>3648</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1060,10 +1089,10 @@
         <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>69669</v>
+        <v>4194</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>28</v>
@@ -1081,25 +1110,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>546</v>
+        <v>41419</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>3648</v>
+        <v>28251</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>33</v>
@@ -1111,10 +1140,10 @@
         <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>4194</v>
+        <v>69669</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>36</v>
@@ -1138,13 +1167,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -1153,13 +1182,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -1168,13 +1197,13 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1185,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>97977</v>
+        <v>4721</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
@@ -1200,10 +1229,10 @@
         <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>55042</v>
+        <v>2018</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>43</v>
@@ -1215,10 +1244,10 @@
         <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>153020</v>
+        <v>6739</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>46</v>
@@ -1236,10 +1265,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>4721</v>
+        <v>97977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -1251,10 +1280,10 @@
         <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>2018</v>
+        <v>55042</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>52</v>
@@ -1266,10 +1295,10 @@
         <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="N11" s="7">
-        <v>6739</v>
+        <v>153020</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
@@ -1293,13 +1322,13 @@
         <v>102698</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -1308,13 +1337,13 @@
         <v>57060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
@@ -1323,13 +1352,13 @@
         <v>159759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,25 +1369,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>63429</v>
+        <v>422</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>52236</v>
+        <v>3273</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>61</v>
@@ -1367,22 +1396,22 @@
         <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>115665</v>
+        <v>3695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,49 +1420,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
-        <v>422</v>
+        <v>63429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>3273</v>
+        <v>52236</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="N14" s="7">
-        <v>3695</v>
+        <v>115665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1448,13 +1477,13 @@
         <v>63851</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -1463,13 +1492,13 @@
         <v>55509</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>131</v>
@@ -1478,66 +1507,66 @@
         <v>119360</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>50393</v>
+        <v>5949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>52793</v>
+        <v>3691</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>103186</v>
+        <v>9640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,49 +1575,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>5949</v>
+        <v>50393</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I17" s="7">
-        <v>3691</v>
+        <v>52793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="N17" s="7">
-        <v>9640</v>
+        <v>103186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,13 +1632,13 @@
         <v>56342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>75</v>
@@ -1618,13 +1647,13 @@
         <v>56484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -1633,13 +1662,13 @@
         <v>112826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,49 +1679,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>255543</v>
+        <v>11637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>189916</v>
+        <v>12630</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
-        <v>548</v>
+        <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>445459</v>
+        <v>24267</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,49 +1730,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="D20" s="7">
-        <v>11637</v>
+        <v>255543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="I20" s="7">
-        <v>12630</v>
+        <v>189916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
-        <v>29</v>
+        <v>548</v>
       </c>
       <c r="N20" s="7">
-        <v>24267</v>
+        <v>445459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,13 +1787,13 @@
         <v>267180</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -1773,13 +1802,13 @@
         <v>202546</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>577</v>
@@ -1788,13 +1817,18 @@
         <v>469726</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B035930-696C-4D80-8416-A259919D5597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDB335E-5810-4A28-A7BD-22FA55B7D0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04B3F17B-576B-4D0B-8C1A-F4469BADD6AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A99A0362-3F15-4401-B9C1-74DB1E901715}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,163 +104,163 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>6,6%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>93,23%</t>
+    <t>93,4%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>95,78%</t>
   </si>
   <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,07%</t>
+    <t>96,91%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -269,109 +269,109 @@
     <t>10,56%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>89,44%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF176CAC-4DC0-4B3A-92CE-3885CEA54686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B87CDB-3E80-40B0-96A7-143E5238A741}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/KIDM_C_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDB335E-5810-4A28-A7BD-22FA55B7D0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FBB6EEF-5769-4134-A90F-3E53BCD030C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A99A0362-3F15-4401-B9C1-74DB1E901715}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DCFB068C-1846-42D4-BDF9-EB1696923859}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t>Menores según si tienen muchos o muchísimos problemas para dormir (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,313 +65,265 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>63,75%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -786,8 +738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B87CDB-3E80-40B0-96A7-143E5238A741}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8DD890-00D8-4FA6-A501-731DC76B5E28}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -904,10 +856,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2785</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -919,85 +871,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3327</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>2324</v>
+        <v>28388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7">
-        <v>1593</v>
+        <v>47478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="N5" s="7">
-        <v>3918</v>
+        <v>75867</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1006,153 +958,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N6" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>546</v>
+        <v>1889</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3648</v>
+        <v>4753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>4194</v>
+        <v>6642</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>76</v>
+      </c>
+      <c r="D8" s="7">
+        <v>51744</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>114</v>
+      </c>
+      <c r="I8" s="7">
+        <v>98024</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7">
+        <v>190</v>
+      </c>
+      <c r="N8" s="7">
+        <v>149768</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="7">
-        <v>41419</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>44</v>
-      </c>
-      <c r="I8" s="7">
-        <v>28251</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="7">
-        <v>92</v>
-      </c>
-      <c r="N8" s="7">
-        <v>69669</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,153 +1113,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I9" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N9" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3071</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>427</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>4721</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
       <c r="N10" s="7">
-        <v>6739</v>
+        <v>3498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>97977</v>
+        <v>69112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I11" s="7">
-        <v>55042</v>
+        <v>64551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>153020</v>
+        <v>133663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,153 +1268,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="N12" s="7">
-        <v>159759</v>
+        <v>137161</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>422</v>
+        <v>3302</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>3273</v>
+        <v>5853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>3695</v>
+        <v>9155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>63429</v>
+        <v>50181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>52236</v>
+        <v>50518</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N14" s="7">
-        <v>115665</v>
+        <v>100699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,153 +1423,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D15" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I15" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>5949</v>
+        <v>11046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>3691</v>
+        <v>11576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>9640</v>
+        <v>22622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="D17" s="7">
-        <v>50393</v>
+        <v>199426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="I17" s="7">
-        <v>52793</v>
+        <v>260571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>133</v>
+        <v>548</v>
       </c>
       <c r="N17" s="7">
-        <v>103186</v>
+        <v>459997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,217 +1578,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D18" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="I18" s="7">
-        <v>56484</v>
+        <v>272147</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>577</v>
       </c>
       <c r="N18" s="7">
-        <v>112826</v>
+        <v>482619</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11637</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12630</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="7">
-        <v>29</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24267</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>293</v>
-      </c>
-      <c r="D20" s="7">
-        <v>255543</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>255</v>
-      </c>
-      <c r="I20" s="7">
-        <v>189916</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>548</v>
-      </c>
-      <c r="N20" s="7">
-        <v>445459</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>307</v>
-      </c>
-      <c r="D21" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>270</v>
-      </c>
-      <c r="I21" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>577</v>
-      </c>
-      <c r="N21" s="7">
-        <v>469726</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
